--- a/Documentacion/ListaRequerimientos.xlsx
+++ b/Documentacion/ListaRequerimientos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\fede\Proyecto final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Github\ProyectoFinal\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,12 @@
     <t>Cierre de la Propuesta Laboral</t>
   </si>
   <si>
-    <t>Trabajo a Realizar en el Desarrollo</t>
-  </si>
-  <si>
     <t>N° Entregable</t>
   </si>
   <si>
     <t>Alta de Usuario Cliente</t>
   </si>
   <si>
-    <t>Detalle</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -371,13 +365,19 @@
     <t>Detallar estándares de documentación (302)</t>
   </si>
   <si>
-    <t>Tipo Requerimiento</t>
-  </si>
-  <si>
     <t>El detalle de los requerimientos es una primera idea, están ambiguos y faltos de detalle. Faltan cosas por definir en cada uno de ellos para luego darle una estimación de tiempo.</t>
   </si>
   <si>
     <t>Ver control que ejercerá el usuario administrador en publicaciones, comentarios, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -773,40 +773,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
-    <col min="4" max="4" width="255.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
+    <col min="4" max="4" width="255.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -818,644 +818,644 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1463,9 +1463,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
